--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/NOSCCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/NOSCCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>NOSCCA</t>
-  </si>
-  <si>
-    <t>28.0337493131906</t>
-  </si>
-  <si>
-    <t>-6.20866532772976</t>
-  </si>
-  <si>
-    <t>-18.0587468551364</t>
-  </si>
-  <si>
-    <t>6.24549602120868</t>
-  </si>
-  <si>
-    <t>-3.09352263997141</t>
-  </si>
-  <si>
-    <t>-0.0254112939507536</t>
-  </si>
-  <si>
-    <t>-16.2259406908385</t>
-  </si>
-  <si>
-    <t>-5.91423886580048</t>
-  </si>
-  <si>
-    <t>-4.01080785520094</t>
-  </si>
-  <si>
-    <t>-17.5842463468298</t>
-  </si>
-  <si>
-    <t>-25.4474995504632</t>
-  </si>
-  <si>
-    <t>-9.5842101535186</t>
-  </si>
-  <si>
-    <t>5.04698581200265</t>
-  </si>
-  <si>
-    <t>-10.6593762349885</t>
-  </si>
-  <si>
-    <t>-0.269545341241326</t>
-  </si>
-  <si>
-    <t>-4.12823702463334</t>
-  </si>
-  <si>
-    <t>2.40175053910218</t>
-  </si>
-  <si>
-    <t>0.932673484608074</t>
-  </si>
-  <si>
-    <t>-0.0519572097045966</t>
-  </si>
-  <si>
-    <t>0.793304003149331</t>
-  </si>
-  <si>
-    <t>7.23308767492404</t>
-  </si>
-  <si>
-    <t>-8.43360261837029</t>
-  </si>
-  <si>
-    <t>-5.88903746235616</t>
-  </si>
-  <si>
-    <t>-5.99865549821652</t>
-  </si>
-  <si>
-    <t>15.8217562047761</t>
-  </si>
-  <si>
-    <t>-1.49022473599689</t>
-  </si>
-  <si>
-    <t>0.800004188916262</t>
-  </si>
-  <si>
-    <t>-1.95813272356628</t>
-  </si>
-  <si>
-    <t>1.21565826428463</t>
-  </si>
-  <si>
-    <t>-9.29631446480437</t>
-  </si>
-  <si>
-    <t>-1.08537843777225</t>
-  </si>
-  <si>
-    <t>-18.5512559214386</t>
-  </si>
-  <si>
-    <t>-17.8636083061573</t>
-  </si>
-  <si>
-    <t>-16.8034632013804</t>
-  </si>
-  <si>
-    <t>-0.677543098600609</t>
-  </si>
-  <si>
-    <t>1.04335291121862</t>
-  </si>
-  <si>
-    <t>5.71494417707942</t>
-  </si>
-  <si>
-    <t>-4.99436969658075</t>
-  </si>
-  <si>
-    <t>-22.401743914752</t>
-  </si>
-  <si>
-    <t>5.90892776815838</t>
-  </si>
-  <si>
-    <t>13.0076141540735</t>
-  </si>
-  <si>
-    <t>0.556879122101691</t>
-  </si>
-  <si>
-    <t>2.42238190237151</t>
-  </si>
-  <si>
-    <t>-1.73009219813264</t>
-  </si>
-  <si>
-    <t>-16.52563018696</t>
-  </si>
-  <si>
-    <t>7.70739389637652</t>
-  </si>
-  <si>
-    <t>-8.25004395899623</t>
-  </si>
-  <si>
-    <t>4.85475691243539</t>
-  </si>
-  <si>
-    <t>-12.4970133910407</t>
-  </si>
-  <si>
-    <t>5.28939259474794</t>
-  </si>
-  <si>
-    <t>0.349894332614213</t>
-  </si>
-  <si>
-    <t>-6.68160298094955</t>
-  </si>
-  <si>
-    <t>-9.05063098353367</t>
-  </si>
-  <si>
-    <t>6.72895994611406</t>
-  </si>
-  <si>
-    <t>2.04952785556924</t>
-  </si>
-  <si>
-    <t>0.756537748002927</t>
-  </si>
-  <si>
-    <t>-10.4162226890366</t>
-  </si>
-  <si>
-    <t>3.86592352956609</t>
-  </si>
-  <si>
-    <t>5.43957801333318</t>
-  </si>
-  <si>
-    <t>-8.49308848583217</t>
-  </si>
-  <si>
-    <t>-22.3304131591963</t>
-  </si>
-  <si>
-    <t>0.727485889669254</t>
-  </si>
-  <si>
-    <t>4.49322173265546</t>
-  </si>
-  <si>
-    <t>2.12314647201771</t>
-  </si>
-  <si>
-    <t>3.6815839429816</t>
-  </si>
-  <si>
-    <t>14.8745567378297</t>
-  </si>
-  <si>
-    <t>0.0278377035616586</t>
-  </si>
-  <si>
-    <t>-9.38782368656746</t>
-  </si>
-  <si>
-    <t>-16.2816411931188</t>
-  </si>
-  <si>
-    <t>13.7705625924701</t>
-  </si>
-  <si>
-    <t>5.54147893319026</t>
-  </si>
-  <si>
-    <t>4.5753769219595</t>
-  </si>
-  <si>
-    <t>-25.7256302277959</t>
-  </si>
-  <si>
-    <t>8.23295076890213</t>
-  </si>
-  <si>
-    <t>14.9061302711596</t>
-  </si>
-  <si>
-    <t>12.1554389791521</t>
-  </si>
-  <si>
-    <t>-16.524281360946</t>
-  </si>
-  <si>
-    <t>-75.6122036309839</t>
-  </si>
-  <si>
-    <t>44.7642505240136</t>
-  </si>
-  <si>
-    <t>41.1298290533461</t>
-  </si>
-  <si>
-    <t>-17.8292381109985</t>
-  </si>
-  <si>
-    <t>42.2594453796671</t>
-  </si>
-  <si>
-    <t>10.4123322904157</t>
-  </si>
-  <si>
-    <t>30.063746248635</t>
+    <t>1.07793648099528</t>
+  </si>
+  <si>
+    <t>157.599063947893</t>
+  </si>
+  <si>
+    <t>-13.0361032141011</t>
+  </si>
+  <si>
+    <t>56.0434127953545</t>
+  </si>
+  <si>
+    <t>-64.3138634293064</t>
+  </si>
+  <si>
+    <t>-136.820624572616</t>
+  </si>
+  <si>
+    <t>7.73600673025089</t>
+  </si>
+  <si>
+    <t>-136.331762505617</t>
+  </si>
+  <si>
+    <t>-36.7407469865748</t>
+  </si>
+  <si>
+    <t>-31.582298373668</t>
+  </si>
+  <si>
+    <t>-25.0578622415437</t>
+  </si>
+  <si>
+    <t>70.8200485590337</t>
+  </si>
+  <si>
+    <t>74.3006423720053</t>
+  </si>
+  <si>
+    <t>25.9986145675798</t>
+  </si>
+  <si>
+    <t>-15.5803651974913</t>
+  </si>
+  <si>
+    <t>66.4431613021577</t>
+  </si>
+  <si>
+    <t>8.24537961242072</t>
+  </si>
+  <si>
+    <t>-80.8372624860042</t>
+  </si>
+  <si>
+    <t>-44.2774622345544</t>
+  </si>
+  <si>
+    <t>27.4710024804815</t>
+  </si>
+  <si>
+    <t>183.538870348122</t>
+  </si>
+  <si>
+    <t>51.5363110579508</t>
+  </si>
+  <si>
+    <t>23.9556437730284</t>
+  </si>
+  <si>
+    <t>64.7240874864988</t>
+  </si>
+  <si>
+    <t>71.0516216578717</t>
+  </si>
+  <si>
+    <t>63.6559437796443</t>
+  </si>
+  <si>
+    <t>42.1403196292879</t>
+  </si>
+  <si>
+    <t>208.442544836088</t>
+  </si>
+  <si>
+    <t>-187.658696953549</t>
+  </si>
+  <si>
+    <t>-238.93726316258</t>
+  </si>
+  <si>
+    <t>-40.778934988288</t>
+  </si>
+  <si>
+    <t>-87.2491714568862</t>
+  </si>
+  <si>
+    <t>-190.632831141597</t>
+  </si>
+  <si>
+    <t>-207.695534799189</t>
+  </si>
+  <si>
+    <t>-316.712029127903</t>
+  </si>
+  <si>
+    <t>-89.8603577762242</t>
+  </si>
+  <si>
+    <t>-137.892260288184</t>
+  </si>
+  <si>
+    <t>-38.3480837925506</t>
+  </si>
+  <si>
+    <t>15.7162522519668</t>
+  </si>
+  <si>
+    <t>114.686750031021</t>
+  </si>
+  <si>
+    <t>12.9372278621415</t>
+  </si>
+  <si>
+    <t>33.3928608685305</t>
+  </si>
+  <si>
+    <t>-0.441342704710223</t>
+  </si>
+  <si>
+    <t>216.991746146661</t>
+  </si>
+  <si>
+    <t>204.355679269064</t>
+  </si>
+  <si>
+    <t>-165.643025083093</t>
+  </si>
+  <si>
+    <t>-125.837375775982</t>
+  </si>
+  <si>
+    <t>33.7214172688632</t>
+  </si>
+  <si>
+    <t>-260.087306794137</t>
+  </si>
+  <si>
+    <t>-18.9842751072551</t>
+  </si>
+  <si>
+    <t>-60.4351798190885</t>
+  </si>
+  <si>
+    <t>-83.3634427369727</t>
+  </si>
+  <si>
+    <t>-113.381844356356</t>
+  </si>
+  <si>
+    <t>-3.15676617465806</t>
+  </si>
+  <si>
+    <t>-48.3011044985767</t>
+  </si>
+  <si>
+    <t>12.7534118761425</t>
+  </si>
+  <si>
+    <t>78.88469949256</t>
+  </si>
+  <si>
+    <t>17.4273473172545</t>
+  </si>
+  <si>
+    <t>81.1052912513765</t>
+  </si>
+  <si>
+    <t>-16.8423464078071</t>
+  </si>
+  <si>
+    <t>-53.5124039265384</t>
+  </si>
+  <si>
+    <t>-53.5560641339664</t>
+  </si>
+  <si>
+    <t>-41.5706453528508</t>
+  </si>
+  <si>
+    <t>-8.76764198907517</t>
+  </si>
+  <si>
+    <t>110.735521480421</t>
+  </si>
+  <si>
+    <t>66.8903207816868</t>
+  </si>
+  <si>
+    <t>-0.513229243739488</t>
+  </si>
+  <si>
+    <t>-150.139830071053</t>
+  </si>
+  <si>
+    <t>-95.9601309233371</t>
+  </si>
+  <si>
+    <t>32.8989430536401</t>
+  </si>
+  <si>
+    <t>22.2461210240222</t>
+  </si>
+  <si>
+    <t>-127.092086217175</t>
+  </si>
+  <si>
+    <t>-71.0666169456481</t>
+  </si>
+  <si>
+    <t>-58.2908337258602</t>
+  </si>
+  <si>
+    <t>15.2102809513674</t>
+  </si>
+  <si>
+    <t>104.734081483912</t>
+  </si>
+  <si>
+    <t>195.162251452937</t>
+  </si>
+  <si>
+    <t>1155.62472010591</t>
+  </si>
+  <si>
+    <t>-537.598143391647</t>
+  </si>
+  <si>
+    <t>381.943394138278</t>
+  </si>
+  <si>
+    <t>1084.84859909814</t>
+  </si>
+  <si>
+    <t>-340.181730546051</t>
+  </si>
+  <si>
+    <t>-303.99583702698</t>
+  </si>
+  <si>
+    <t>-268.966336149766</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
